--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf5eff0e82977d5/Documents/Uni-DESKTOP-D41IPJ3/Internship Aalto/EnergyModel/model-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="8_{79DA86DC-E3D6-4AFA-91C5-4D49669F33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948F830C-79DE-4CE4-8815-088D6E46F606}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD65A6C-B782-4D41-8DE7-7A4951001128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3090" windowWidth="29790" windowHeight="15240" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
     <sheet name="commodities" sheetId="11" r:id="rId2"/>
-    <sheet name="main_model" sheetId="5" r:id="rId3"/>
+    <sheet name="model_config" sheetId="5" r:id="rId3"/>
     <sheet name="is_active" sheetId="12" r:id="rId4"/>
     <sheet name="node_slack_penalty" sheetId="13" r:id="rId5"/>
   </sheets>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
   <si>
     <t>efficiency</t>
   </si>
@@ -130,9 +129,6 @@
     <t>2018-01-01T00:00:00</t>
   </si>
   <si>
-    <t>instance</t>
-  </si>
-  <si>
     <t>model_start</t>
   </si>
   <si>
@@ -418,10 +414,58 @@
     <t>roll_forward</t>
   </si>
   <si>
-    <t>8760h</t>
-  </si>
-  <si>
-    <t>2018-07-01T00:00:00</t>
+    <t>2019-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>RollingHorizon</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>block_start</t>
+  </si>
+  <si>
+    <t>block_end</t>
+  </si>
+  <si>
+    <t>report__output</t>
+  </si>
+  <si>
+    <t>constraint_nodal_balance</t>
+  </si>
+  <si>
+    <t>electricity_price_nodal</t>
+  </si>
+  <si>
+    <t>main_variables</t>
+  </si>
+  <si>
+    <t>objective_terms</t>
+  </si>
+  <si>
+    <t>rolling_realisation</t>
+  </si>
+  <si>
+    <t>rolling_look_ahead</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>FullYear</t>
+  </si>
+  <si>
+    <t>operation_1year</t>
   </si>
 </sst>
 </file>
@@ -497,11 +541,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="40 % - Akzent1" xfId="1" builtinId="31"/>
-    <cellStyle name="40 % - Akzent4" xfId="2" builtinId="43"/>
-    <cellStyle name="40 % - Akzent6" xfId="3" builtinId="51"/>
-    <cellStyle name="Prozent" xfId="4" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,11 +859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4B04A2-231C-4358-935A-1C9D7AE5451A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
@@ -832,28 +876,28 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -868,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -877,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1352,7 +1396,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1360,10 +1404,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1380,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1389,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1398,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1407,25 +1451,25 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1535,118 +1579,1078 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EE5-8B19-4B92-920C-9A11B3130D92}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1659,10 +2663,10 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D74"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -1671,1038 +2675,1038 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
         <v>37</v>
       </c>
-      <c r="B71" t="s">
-        <v>38</v>
-      </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
         <v>27</v>
       </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
         <v>30</v>
       </c>
-      <c r="B74" t="s">
-        <v>31</v>
-      </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2718,7 +3722,7 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2726,10 +3730,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +3778,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>1000000000000</v>
@@ -2782,7 +3786,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>1000000000000</v>

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD65A6C-B782-4D41-8DE7-7A4951001128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41E013-5008-4D3F-9B40-3A1A8BC3C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
     <sheet name="commodities" sheetId="11" r:id="rId2"/>
     <sheet name="model_config" sheetId="5" r:id="rId3"/>
-    <sheet name="is_active" sheetId="12" r:id="rId4"/>
-    <sheet name="node_slack_penalty" sheetId="13" r:id="rId5"/>
+    <sheet name="scenarios" sheetId="14" r:id="rId4"/>
+    <sheet name="is_active" sheetId="12" r:id="rId5"/>
+    <sheet name="node_slack_penalty" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="151">
   <si>
     <t>efficiency</t>
   </si>
@@ -402,9 +403,6 @@
     <t>Transmission cost [€/MWh/1000 km]</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>NOR_hydro-reservoir</t>
   </si>
   <si>
@@ -414,18 +412,12 @@
     <t>roll_forward</t>
   </si>
   <si>
-    <t>2019-01-01T00:00:00</t>
-  </si>
-  <si>
     <t>RollingHorizon</t>
   </si>
   <si>
     <t>0h</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>operation</t>
   </si>
   <si>
@@ -456,16 +448,73 @@
     <t>rolling_look_ahead</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
     <t>1D</t>
   </si>
   <si>
-    <t>FullYear</t>
-  </si>
-  <si>
     <t>operation_1year</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>PerfectForesight</t>
+  </si>
+  <si>
+    <t>2018-12-31T23:00:00</t>
+  </si>
+  <si>
+    <t>30D</t>
+  </si>
+  <si>
+    <t>90D</t>
+  </si>
+  <si>
+    <t>BAL_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage</t>
+  </si>
+  <si>
+    <t>cyclic_condition</t>
+  </si>
+  <si>
+    <t>GlobalSolveLP</t>
+  </si>
+  <si>
+    <t>GlobalSolveRampOptLP</t>
+  </si>
+  <si>
+    <t>GlobalSolveMIP</t>
+  </si>
+  <si>
+    <t>GlobalSolveRampOptMIP</t>
+  </si>
+  <si>
+    <t>RollingScheduleLP</t>
+  </si>
+  <si>
+    <t>RollingScheduleRampOptLP</t>
+  </si>
+  <si>
+    <t>RollingScheduleMIP</t>
+  </si>
+  <si>
+    <t>RollingScheduleRampOptMIP</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>IntegerVariables</t>
+  </si>
+  <si>
+    <t>RampBase</t>
+  </si>
+  <si>
+    <t>RampStartShut</t>
+  </si>
+  <si>
+    <t>StartShutCost</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1442,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,21 +1505,9 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EE5-8B19-4B92-920C-9A11B3130D92}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1659,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>26</v>
@@ -1646,10 +1683,10 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>52</v>
@@ -1670,7 +1707,7 @@
         <v>57</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1678,13 +1715,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
@@ -1715,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1733,11 +1770,11 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U3" s="5"/>
     </row>
@@ -1746,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1764,7 +1801,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="5" t="s">
@@ -1777,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1795,7 +1832,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="5" t="s">
@@ -1808,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1826,7 +1863,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="5" t="s">
@@ -1839,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1857,7 +1894,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="5" t="s">
@@ -1870,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1888,7 +1925,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="5" t="s">
@@ -1901,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1919,7 +1956,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="5" t="s">
@@ -1932,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1950,7 +1987,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="5" t="s">
@@ -1963,7 +2000,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1981,7 +2018,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="5" t="s">
@@ -1994,7 +2031,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2012,7 +2049,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="5" t="s">
@@ -2025,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2043,7 +2080,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="5" t="s">
@@ -2056,7 +2093,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2074,7 +2111,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="5" t="s">
@@ -2087,7 +2124,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2105,7 +2142,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="5" t="s">
@@ -2118,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2136,7 +2173,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="5" t="s">
@@ -2149,7 +2186,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2167,7 +2204,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="5" t="s">
@@ -2180,7 +2217,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2198,7 +2235,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="5" t="s">
@@ -2211,7 +2248,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2229,7 +2266,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="5" t="s">
@@ -2242,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2260,7 +2297,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="5" t="s">
@@ -2273,7 +2310,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2291,7 +2328,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="5" t="s">
@@ -2304,7 +2341,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2322,7 +2359,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="5" t="s">
@@ -2335,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2353,7 +2390,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="5" t="s">
@@ -2366,7 +2403,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2384,7 +2421,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="5" t="s">
@@ -2397,7 +2434,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2415,7 +2452,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="5" t="s">
@@ -2425,10 +2462,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2439,16 +2476,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O26" s="5" t="b">
         <v>1</v>
@@ -2462,10 +2499,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2476,7 +2513,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2493,15 +2530,15 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2509,16 +2546,16 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O28" s="5" t="b">
         <v>1</v>
@@ -2532,10 +2569,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2546,16 +2583,16 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O29" s="5" t="b">
         <v>1</v>
@@ -2572,7 +2609,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2583,7 +2620,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2603,7 +2640,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2614,7 +2651,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2659,6 +2696,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D19B3-8178-4738-B107-E4543E6C59AD}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="str">
+        <f>A2</f>
+        <v>Base</v>
+      </c>
+      <c r="C2" t="str">
+        <f>B2</f>
+        <v>Base</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:I2" si="0">C2</f>
+        <v>Base</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>Base</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>Base</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>Base</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v>Base</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>Base</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3</f>
+        <v>IntegerVariables</v>
+      </c>
+      <c r="E3" t="str">
+        <f>D3</f>
+        <v>IntegerVariables</v>
+      </c>
+      <c r="H3" t="str">
+        <f>A3</f>
+        <v>IntegerVariables</v>
+      </c>
+      <c r="I3" t="str">
+        <f>H3</f>
+        <v>IntegerVariables</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="str">
+        <f>A4</f>
+        <v>PerfectForesight</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:E4" si="1">B4</f>
+        <v>PerfectForesight</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>PerfectForesight</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>PerfectForesight</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="str">
+        <f>A5</f>
+        <v>RampBase</v>
+      </c>
+      <c r="E5" t="str">
+        <f>A5</f>
+        <v>RampBase</v>
+      </c>
+      <c r="G5" t="str">
+        <f>A5</f>
+        <v>RampBase</v>
+      </c>
+      <c r="I5" t="str">
+        <f>G5</f>
+        <v>RampBase</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="str">
+        <f>A6</f>
+        <v>RollingHorizon</v>
+      </c>
+      <c r="G6" t="str">
+        <f>F6</f>
+        <v>RollingHorizon</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:I6" si="2">G6</f>
+        <v>RollingHorizon</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>RollingHorizon</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="str">
+        <f>A7</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="E7" t="str">
+        <f>A7</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="G7" t="str">
+        <f>A7</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="I7" t="str">
+        <f>G7</f>
+        <v>StartShutCost</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D7CEC5-1066-4F7A-BF5F-DB7C73C83249}">
   <dimension ref="A1:D74"/>
   <sheetViews>
@@ -2832,7 +3072,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -3714,82 +3954,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3530F8-0C6E-424D-9FD5-171CF097F816}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" t="str">
+        <f>model_config!K26</f>
+        <v>operation_1year</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B7">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
       <c r="B8">
-        <v>1000000000000</v>
+        <v>10000</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>operation_1year</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C10" si="0">C8</f>
+        <v>operation_1year</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_1year</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41E013-5008-4D3F-9B40-3A1A8BC3C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A890E-E3DE-41A3-8C11-A65F8F15A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
     <sheet name="commodities" sheetId="11" r:id="rId2"/>
     <sheet name="model_config" sheetId="5" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="14" r:id="rId4"/>
-    <sheet name="is_active" sheetId="12" r:id="rId5"/>
-    <sheet name="node_slack_penalty" sheetId="13" r:id="rId6"/>
+    <sheet name="model_output" sheetId="15" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="14" r:id="rId5"/>
+    <sheet name="is_active" sheetId="12" r:id="rId6"/>
+    <sheet name="node_slack_penalty" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="145">
   <si>
     <t>efficiency</t>
   </si>
@@ -148,9 +149,6 @@
     <t>deterministic</t>
   </si>
   <si>
-    <t>model__stochastic_structure</t>
-  </si>
-  <si>
     <t>temporal_block</t>
   </si>
   <si>
@@ -160,36 +158,21 @@
     <t>alternative</t>
   </si>
   <si>
-    <t>model__default_stochastic_structure</t>
-  </si>
-  <si>
     <t>resolution</t>
   </si>
   <si>
-    <t>model__temporal_block</t>
-  </si>
-  <si>
-    <t>model__default_temporal_block</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
     <t>main_report</t>
   </si>
   <si>
-    <t>model__report</t>
-  </si>
-  <si>
     <t>stochastic_scenario</t>
   </si>
   <si>
     <t>realization</t>
   </si>
   <si>
-    <t>stochastic_structure__stochastic_scenario</t>
-  </si>
-  <si>
     <t>lifetime [hours]</t>
   </si>
   <si>
@@ -427,9 +410,6 @@
     <t>block_end</t>
   </si>
   <si>
-    <t>report__output</t>
-  </si>
-  <si>
     <t>constraint_nodal_balance</t>
   </si>
   <si>
@@ -515,6 +495,9 @@
   </si>
   <si>
     <t>StartShutCost</t>
+  </si>
+  <si>
+    <t>units_shut_down</t>
   </si>
 </sst>
 </file>
@@ -925,28 +908,28 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -961,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -970,10 +953,10 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1453,10 +1436,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1473,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1482,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1491,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1500,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1616,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EE5-8B19-4B92-920C-9A11B3130D92}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,25 +1612,16 @@
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -1659,1035 +1633,221 @@
         <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L4" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2696,10 +1856,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC5AED2-4156-4414-A964-AF320110ED91}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D19B3-8178-4738-B107-E4543E6C59AD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2717,28 +2205,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2780,7 +2268,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D3" t="str">
         <f>A3</f>
@@ -2801,7 +2289,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B4" t="str">
         <f>A4</f>
@@ -2822,7 +2310,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C5" t="str">
         <f>A5</f>
@@ -2843,7 +2331,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F6" t="str">
         <f>A6</f>
@@ -2864,7 +2352,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C7" t="str">
         <f>A7</f>
@@ -2885,12 +2373,12 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D7CEC5-1066-4F7A-BF5F-DB7C73C83249}">
   <dimension ref="A1:D74"/>
   <sheetViews>
@@ -2915,49 +2403,49 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2966,12 +2454,12 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2980,12 +2468,12 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2994,12 +2482,12 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3008,12 +2496,12 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3022,12 +2510,12 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3036,12 +2524,12 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -3050,12 +2538,12 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -3064,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,18 +2560,18 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -3092,12 +2580,12 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -3106,12 +2594,12 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3120,12 +2608,12 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -3134,12 +2622,12 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -3148,777 +2636,777 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,21 +3420,21 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
         <v>29</v>
       </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
       <c r="C74" t="s">
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3530F8-0C6E-424D-9FD5-171CF097F816}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3971,16 +3459,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,13 +3513,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="str">
-        <f>model_config!K26</f>
+        <f>model_config!H3</f>
         <v>operation_1year</v>
       </c>
       <c r="D7" t="b">
@@ -4040,7 +3528,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -4055,7 +3543,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -4070,7 +3558,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>10000</v>

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A890E-E3DE-41A3-8C11-A65F8F15A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A075AF0B-E3B5-4F91-9F4E-1628CB4D8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="146">
   <si>
     <t>efficiency</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>units_shut_down</t>
+  </si>
+  <si>
+    <t>RollingFixDispatch</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EE5-8B19-4B92-920C-9A11B3130D92}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2185,15 +2188,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D19B3-8178-4738-B107-E4543E6C59AD}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -2352,32 +2356,43 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="str">
-        <f>A7</f>
-        <v>StartShutCost</v>
-      </c>
-      <c r="E7" t="str">
-        <f>A7</f>
-        <v>StartShutCost</v>
-      </c>
-      <c r="G7" t="str">
-        <f>A7</f>
-        <v>StartShutCost</v>
-      </c>
-      <c r="I7" t="str">
-        <f>G7</f>
-        <v>StartShutCost</v>
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="C8" t="str">
+        <f>A8</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="E8" t="str">
+        <f>A8</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="G8" t="str">
+        <f>A8</f>
+        <v>StartShutCost</v>
+      </c>
+      <c r="I8" t="str">
+        <f>G8</f>
+        <v>StartShutCost</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>139</v>
       </c>
     </row>

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A075AF0B-E3B5-4F91-9F4E-1628CB4D8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A8ACB-D244-41DE-9C30-023DA92E858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="150">
   <si>
     <t>efficiency</t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>RollingFixDispatch</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>rolling_look_ahead_ST</t>
+  </si>
+  <si>
+    <t>rolling_look_ahead_ST_nuclear</t>
+  </si>
+  <si>
+    <t>default_temporal_block</t>
   </si>
 </sst>
 </file>
@@ -1602,27 +1614,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EE5-8B19-4B92-920C-9A11B3130D92}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1645,22 +1658,25 @@
         <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1685,8 +1701,9 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
@@ -1702,19 +1719,22 @@
         <v>122</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="5" t="b">
+      <c r="M3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -1726,17 +1746,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="b">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>110</v>
       </c>
@@ -1754,21 +1775,24 @@
         <v>119</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="5" t="b">
+      <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>112</v>
@@ -1778,25 +1802,20 @@
       <c r="E6" s="3"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>112</v>
@@ -1807,16 +1826,25 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1828,29 +1856,135 @@
       <c r="E8" s="3"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5" t="b">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2190,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D19B3-8178-4738-B107-E4543E6C59AD}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3534,7 +3668,7 @@
         <v>10000</v>
       </c>
       <c r="C7" t="str">
-        <f>model_config!H3</f>
+        <f>model_config!I3</f>
         <v>operation_1year</v>
       </c>
       <c r="D7" t="b">

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A8ACB-D244-41DE-9C30-023DA92E858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA703AA-875C-40E5-BD6A-C855DA4C8906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
   <sheets>
     <sheet name="transmission" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="159">
   <si>
     <t>efficiency</t>
   </si>
@@ -425,15 +425,9 @@
     <t>rolling_realisation</t>
   </si>
   <si>
-    <t>rolling_look_ahead</t>
-  </si>
-  <si>
     <t>1D</t>
   </si>
   <si>
-    <t>operation_1year</t>
-  </si>
-  <si>
     <t>1Y</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>30D</t>
   </si>
   <si>
-    <t>90D</t>
-  </si>
-  <si>
     <t>BAL_hydro-pumped_storage</t>
   </si>
   <si>
@@ -506,13 +497,49 @@
     <t>2D</t>
   </si>
   <si>
-    <t>rolling_look_ahead_ST</t>
-  </si>
-  <si>
-    <t>rolling_look_ahead_ST_nuclear</t>
-  </si>
-  <si>
     <t>default_temporal_block</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Aurland_III</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Brattingfoss</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Duge</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Herva</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Jukla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Nygard</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Saurdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Stølsdal</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Tevla</t>
+  </si>
+  <si>
+    <t>NOR_hydro-pumped_storage_Øljusjøen</t>
+  </si>
+  <si>
+    <t>operation_full_horizon</t>
+  </si>
+  <si>
+    <t>rolling_lookahead</t>
+  </si>
+  <si>
+    <t>rolling_lookahead_ST</t>
+  </si>
+  <si>
+    <t>rolling_lookahead_ST_nuclear</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1644,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1685,7 @@
         <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -1687,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
@@ -1705,7 +1732,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>112</v>
@@ -1716,27 +1743,23 @@
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>112</v>
@@ -1748,7 +1771,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1767,7 +1790,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
@@ -1784,7 +1807,7 @@
         <v>111</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="5" t="b">
         <v>1</v>
@@ -1825,20 +1848,18 @@
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="5" t="b">
         <v>1</v>
@@ -1858,7 +1879,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1879,18 +1900,20 @@
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M9" s="5" t="b">
         <v>1</v>
@@ -1910,7 +1933,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1933,16 +1956,16 @@
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M11" s="5" t="b">
         <v>1</v>
@@ -1962,7 +1985,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2136,7 +2159,7 @@
         <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,28 +2366,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2406,7 +2429,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" t="str">
         <f>A3</f>
@@ -2427,7 +2450,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="str">
         <f>A4</f>
@@ -2448,7 +2471,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" t="str">
         <f>A5</f>
@@ -2490,18 +2513,18 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" t="str">
         <f>A8</f>
@@ -2522,12 +2545,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3593,20 +3616,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3530F8-0C6E-424D-9FD5-171CF097F816}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B7" sqref="B7:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3617,10 +3641,13 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3628,7 +3655,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3663,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3671,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3679,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3660,64 +3687,214 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
       <c r="C7" t="str">
         <f>model_config!I3</f>
-        <v>operation_1year</v>
+        <v>operation_full_horizon</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
       <c r="C8" t="str">
         <f>C7</f>
-        <v>operation_1year</v>
+        <v>operation_full_horizon</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
+        <v>125</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C10" si="0">C8</f>
-        <v>operation_1year</v>
+        <f t="shared" ref="C9:C20" si="0">C8</f>
+        <v>operation_full_horizon</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>10000</v>
+        <v>126</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>operation_1year</v>
+        <v>operation_full_horizon</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>operation_full_horizon</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/model-data/model_parameters.xlsx
+++ b/model-data/model_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA703AA-875C-40E5-BD6A-C855DA4C8906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3367D-B8F6-47C4-81A1-065AE64F21CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{ADDE16D4-F9FE-4B25-9901-D320469C21A8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="160">
   <si>
     <t>efficiency</t>
   </si>
@@ -428,9 +428,6 @@
     <t>1D</t>
   </si>
   <si>
-    <t>1Y</t>
-  </si>
-  <si>
     <t>PerfectForesight</t>
   </si>
   <si>
@@ -540,6 +537,12 @@
   </si>
   <si>
     <t>rolling_lookahead_ST_nuclear</t>
+  </si>
+  <si>
+    <t>60D</t>
+  </si>
+  <si>
+    <t>120D</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1647,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1688,7 @@
         <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>28</v>
@@ -1714,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
@@ -1732,7 +1735,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>112</v>
@@ -1743,10 +1746,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>20</v>
@@ -1771,7 +1774,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1790,12 +1793,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>119</v>
+      <c r="H5" s="5" t="str">
+        <f>I5</f>
+        <v>rolling_realisation</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>119</v>
@@ -1807,7 +1811,7 @@
         <v>111</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="M5" s="5" t="b">
         <v>1</v>
@@ -1850,16 +1854,16 @@
       <c r="G7" s="3"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>120</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M7" s="5" t="b">
         <v>1</v>
@@ -1879,7 +1883,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1900,20 +1904,21 @@
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>157</v>
+      <c r="H9" s="5" t="str">
+        <f>I9</f>
+        <v>rolling_lookahead_ST</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M9" s="5" t="b">
         <v>1</v>
@@ -1933,7 +1938,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1956,16 +1961,16 @@
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="L11" s="5" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M11" s="5" t="b">
         <v>1</v>
@@ -1985,7 +1990,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2159,7 +2164,7 @@
         <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,28 +2371,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,7 +2434,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="str">
         <f>A3</f>
@@ -2450,7 +2455,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="str">
         <f>A4</f>
@@ -2471,7 +2476,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="str">
         <f>A5</f>
@@ -2513,18 +2518,18 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="str">
         <f>A8</f>
@@ -2545,12 +2550,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3646,7 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
@@ -3719,7 +3724,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ref="C9:C20" si="0">C8</f>
@@ -3734,7 +3739,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3749,7 +3754,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3764,7 +3769,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3779,7 +3784,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3794,7 +3799,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3809,7 +3814,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3824,7 +3829,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3839,7 +3844,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3854,7 +3859,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3869,7 +3874,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3884,7 +3889,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
